--- a/Propeller Packages/APC_13x6/Prop_sections.xlsx
+++ b/Propeller Packages/APC_13x6/Prop_sections.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/Propeller Packages/APC_13x6/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/VortexBlade Exc/Propeller Packages/APC_13x6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="8_{DCD0392B-EE36-4445-9016-A30FEA7F07AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D19D940-D189-4395-B35A-272011CE60CD}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="8_{DCD0392B-EE36-4445-9016-A30FEA7F07AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80EBCA9A-7362-4607-B14B-6DEB6AEE43B5}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="15552" windowHeight="16656" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5615C66F-3B0A-41D0-BEB5-068B53D4D7A6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -565,292 +565,318 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A94C44-A6E9-40A2-964B-298D7ACDDD69}">
-  <dimension ref="A1:T8"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q10" sqref="Q10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="18" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="18" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3">
+        <v>1.26E-2</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D1" s="3">
         <v>4.1430022860045698E-2</v>
       </c>
-      <c r="C1" s="3">
+      <c r="E1" s="3">
         <v>4.5488950977901954E-2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="F1" s="3">
         <v>4.9547879095758196E-2</v>
       </c>
-      <c r="E1" s="3">
+      <c r="G1" s="3">
         <v>5.3736347472694949E-2</v>
       </c>
-      <c r="F1" s="3">
+      <c r="H1" s="3">
         <v>6.1668783337566681E-2</v>
       </c>
-      <c r="G1" s="3">
+      <c r="I1" s="3">
         <v>6.9733299466598939E-2</v>
       </c>
-      <c r="H1" s="3">
+      <c r="J1" s="3">
         <v>7.7795275590551188E-2</v>
       </c>
-      <c r="I1" s="3">
+      <c r="K1" s="3">
         <v>8.5859791719583453E-2</v>
       </c>
-      <c r="J1" s="3">
+      <c r="L1" s="3">
         <v>9.3921767843535703E-2</v>
       </c>
-      <c r="K1" s="3">
+      <c r="M1" s="3">
         <v>0.10198628397256795</v>
       </c>
-      <c r="L1" s="3">
+      <c r="N1" s="3">
         <v>0.1100482600965202</v>
       </c>
-      <c r="M1" s="3">
+      <c r="O1" s="3">
         <v>0.11811023622047245</v>
       </c>
-      <c r="N1" s="3">
+      <c r="P1" s="3">
         <v>0.1261747523495047</v>
       </c>
-      <c r="O1" s="3">
+      <c r="Q1" s="3">
         <v>0.13423672847345697</v>
       </c>
-      <c r="P1" s="3">
+      <c r="R1" s="3">
         <v>0.14230124460248922</v>
       </c>
-      <c r="Q1" s="3">
+      <c r="S1" s="3">
         <v>0.15036322072644148</v>
       </c>
-      <c r="R1" s="3">
+      <c r="T1" s="3">
         <v>0.15841249682499367</v>
       </c>
-      <c r="S1" s="3">
+      <c r="U1" s="3">
         <v>0.16223995999999999</v>
       </c>
-      <c r="T1" s="3">
+      <c r="V1" s="3">
         <v>0.16459232918465838</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
         <f>B1/$A8</f>
+        <v>7.6552777777777775E-2</v>
+      </c>
+      <c r="C2" s="5">
+        <f>C1/$A8</f>
+        <v>0.15189043209876543</v>
+      </c>
+      <c r="D2" s="5">
+        <f>D1/$A8</f>
         <v>0.25171296296296281</v>
       </c>
-      <c r="C2" s="5">
-        <f t="shared" ref="C2:S2" si="0">C1/$A8</f>
+      <c r="E2" s="5">
+        <f>E1/$A8</f>
         <v>0.27637345679012343</v>
       </c>
-      <c r="D2" s="5">
-        <f t="shared" si="0"/>
+      <c r="F2" s="5">
+        <f>F1/$A8</f>
         <v>0.30103395061728394</v>
       </c>
-      <c r="E2" s="5">
-        <f t="shared" si="0"/>
+      <c r="G2" s="5">
+        <f>G1/$A8</f>
         <v>0.32648148148148148</v>
       </c>
-      <c r="F2" s="5">
-        <f t="shared" si="0"/>
+      <c r="H2" s="5">
+        <f>H1/$A8</f>
         <v>0.37467592592592591</v>
       </c>
-      <c r="G2" s="5">
-        <f t="shared" si="0"/>
+      <c r="I2" s="5">
+        <f>I1/$A8</f>
         <v>0.42367283950617285</v>
       </c>
-      <c r="H2" s="5">
-        <f t="shared" si="0"/>
+      <c r="J2" s="5">
+        <f>J1/$A8</f>
         <v>0.47265432098765431</v>
       </c>
-      <c r="I2" s="5">
-        <f t="shared" si="0"/>
+      <c r="K2" s="5">
+        <f>K1/$A8</f>
         <v>0.5216512345679013</v>
       </c>
-      <c r="J2" s="5">
-        <f t="shared" si="0"/>
+      <c r="L2" s="5">
+        <f>L1/$A8</f>
         <v>0.57063271604938282</v>
       </c>
-      <c r="K2" s="5">
-        <f t="shared" si="0"/>
+      <c r="M2" s="5">
+        <f>M1/$A8</f>
         <v>0.61962962962962964</v>
       </c>
-      <c r="L2" s="5">
-        <f t="shared" si="0"/>
+      <c r="N2" s="5">
+        <f>N1/$A8</f>
         <v>0.66861111111111116</v>
       </c>
-      <c r="M2" s="5">
-        <f t="shared" si="0"/>
+      <c r="O2" s="5">
+        <f>O1/$A8</f>
         <v>0.71759259259259256</v>
       </c>
-      <c r="N2" s="5">
-        <f t="shared" si="0"/>
+      <c r="P2" s="5">
+        <f>P1/$A8</f>
         <v>0.7665895061728395</v>
       </c>
-      <c r="O2" s="5">
-        <f t="shared" si="0"/>
+      <c r="Q2" s="5">
+        <f>Q1/$A8</f>
         <v>0.81557098765432101</v>
       </c>
-      <c r="P2" s="5">
-        <f t="shared" si="0"/>
+      <c r="R2" s="5">
+        <f>R1/$A8</f>
         <v>0.86456790123456795</v>
       </c>
-      <c r="Q2" s="5">
-        <f t="shared" si="0"/>
+      <c r="S2" s="5">
+        <f>S1/$A8</f>
         <v>0.91354938271604946</v>
-      </c>
-      <c r="R2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.96245370370370376</v>
-      </c>
-      <c r="S2" s="5">
-        <f t="shared" si="0"/>
-        <v>0.98570790512345663</v>
       </c>
       <c r="T2" s="5">
         <f>T1/$A8</f>
+        <v>0.96245370370370376</v>
+      </c>
+      <c r="U2" s="5">
+        <f>U1/$A8</f>
+        <v>0.98570790512345663</v>
+      </c>
+      <c r="V2" s="5">
+        <f>V1/$A8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D3" s="3">
         <v>2.5364490728981462E-2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>2.5996951993903991E-2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>2.6499872999745998E-2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>2.6885953771907545E-2</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>2.7264414528829058E-2</v>
       </c>
-      <c r="G3" s="3">
+      <c r="I3" s="3">
         <v>2.7213614427228854E-2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="J3" s="3">
         <v>2.676149352298705E-2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="K3" s="3">
         <v>2.5956311912623826E-2</v>
       </c>
-      <c r="J3" s="3">
+      <c r="L3" s="3">
         <v>2.4838709677419357E-2</v>
       </c>
-      <c r="K3" s="3">
+      <c r="M3" s="3">
         <v>2.3446786893573789E-2</v>
       </c>
-      <c r="L3" s="3">
+      <c r="N3" s="3">
         <v>2.1826263652527305E-2</v>
       </c>
-      <c r="M3" s="3">
+      <c r="O3" s="3">
         <v>2.0017780035560075E-2</v>
       </c>
-      <c r="N3" s="3">
+      <c r="P3" s="3">
         <v>1.8061976123952248E-2</v>
       </c>
-      <c r="O3" s="3">
+      <c r="Q3" s="3">
         <v>1.5999491998984001E-2</v>
       </c>
-      <c r="P3" s="3">
+      <c r="R3" s="3">
         <v>1.3873507747015495E-2</v>
       </c>
-      <c r="Q3" s="3">
+      <c r="S3" s="3">
         <v>1.172720345440691E-2</v>
       </c>
-      <c r="R3" s="3">
+      <c r="T3" s="3">
         <v>9.6266192532385077E-3</v>
       </c>
-      <c r="S3" s="3">
+      <c r="U3" s="3">
         <v>7.0485000000000001E-3</v>
       </c>
-      <c r="T3" s="8">
+      <c r="V3" s="8">
         <v>6.0959999999999999E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="3">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>28</v>
+      </c>
+      <c r="D4" s="3">
         <v>28.184699999999999</v>
       </c>
-      <c r="C4" s="3">
+      <c r="E4" s="3">
         <v>27.382300000000001</v>
       </c>
-      <c r="D4" s="3">
+      <c r="F4" s="3">
         <v>26.437999999999999</v>
       </c>
-      <c r="E4" s="3">
+      <c r="G4" s="3">
         <v>25.340599999999998</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>22.986899999999999</v>
       </c>
-      <c r="G4" s="3">
+      <c r="I4" s="3">
         <v>20.637699999999999</v>
       </c>
-      <c r="H4" s="3">
+      <c r="J4" s="3">
         <v>18.721499999999999</v>
       </c>
-      <c r="I4" s="3">
+      <c r="K4" s="3">
         <v>17.144200000000001</v>
       </c>
-      <c r="J4" s="3">
+      <c r="L4" s="3">
         <v>15.834</v>
       </c>
-      <c r="K4" s="3">
+      <c r="M4" s="3">
         <v>14.732200000000001</v>
       </c>
-      <c r="L4" s="3">
+      <c r="N4" s="3">
         <v>13.777100000000001</v>
       </c>
-      <c r="M4" s="3">
+      <c r="O4" s="3">
         <v>12.9377</v>
       </c>
-      <c r="N4" s="3">
+      <c r="P4" s="3">
         <v>12.1905</v>
       </c>
-      <c r="O4" s="3">
+      <c r="Q4" s="3">
         <v>11.5161</v>
       </c>
-      <c r="P4" s="3">
+      <c r="R4" s="3">
         <v>10.897</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="S4" s="3">
         <v>10.2797</v>
       </c>
-      <c r="R4" s="3">
+      <c r="T4" s="3">
         <v>10.3005</v>
       </c>
-      <c r="S4" s="3">
+      <c r="U4" s="3">
         <v>10.702299999999999</v>
       </c>
-      <c r="T4" s="3">
+      <c r="V4" s="3">
         <v>7.1948999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -858,142 +884,156 @@
         <v>1</v>
       </c>
       <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
         <v>2</v>
       </c>
-      <c r="D5" s="4">
+      <c r="F5" s="4">
         <v>3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="G5" s="4">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="H5" s="4">
         <v>5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="I5" s="4">
         <v>6</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <v>7</v>
       </c>
-      <c r="I5" s="4">
+      <c r="K5" s="4">
         <v>8</v>
       </c>
-      <c r="J5" s="4">
+      <c r="L5" s="4">
         <v>9</v>
       </c>
-      <c r="K5" s="4">
+      <c r="M5" s="4">
         <v>10</v>
       </c>
-      <c r="L5" s="4">
+      <c r="N5" s="4">
         <v>11</v>
       </c>
-      <c r="M5" s="4">
+      <c r="O5" s="4">
         <v>12</v>
       </c>
-      <c r="N5" s="4">
+      <c r="P5" s="4">
         <v>13</v>
       </c>
-      <c r="O5" s="4">
+      <c r="Q5" s="4">
         <v>14</v>
       </c>
-      <c r="P5" s="4">
+      <c r="R5" s="4">
         <v>15</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="S5" s="4">
         <v>16</v>
       </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
         <v>17</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>18</v>
       </c>
-      <c r="T5" s="4">
+      <c r="V5" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="5">
         <f>B1-B8</f>
-        <v>2.8930022860045698E-2</v>
+        <v>9.9999999999999395E-5</v>
       </c>
       <c r="C6" s="5">
         <f>C1-B1</f>
+        <v>1.2400000000000001E-2</v>
+      </c>
+      <c r="D6" s="5">
+        <f>D1-C1</f>
+        <v>1.6430022860045697E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f>E1-D1</f>
         <v>4.0589281178562558E-3</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" ref="D6:N6" si="1">D1-C1</f>
+      <c r="F6" s="5">
+        <f t="shared" ref="F6:P6" si="0">F1-E1</f>
         <v>4.058928117856242E-3</v>
       </c>
-      <c r="E6" s="5">
+      <c r="G6" s="5">
+        <f t="shared" si="0"/>
+        <v>4.1884683769367534E-3</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>7.9324358648717314E-3</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0645161290322578E-3</v>
+      </c>
+      <c r="J6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0619761239522497E-3</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0645161290322648E-3</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0619761239522497E-3</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0645161290322509E-3</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0619761239522497E-3</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0619761239522497E-3</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="0"/>
+        <v>8.0645161290322509E-3</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>Q1-P1</f>
+        <v>8.0619761239522636E-3</v>
+      </c>
+      <c r="R6" s="5">
+        <f t="shared" ref="R6:S6" si="1">R1-Q1</f>
+        <v>8.0645161290322509E-3</v>
+      </c>
+      <c r="S6" s="5">
         <f t="shared" si="1"/>
-        <v>4.1884683769367534E-3</v>
-      </c>
-      <c r="F6" s="5">
-        <f t="shared" si="1"/>
-        <v>7.9324358648717314E-3</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0645161290322578E-3</v>
-      </c>
-      <c r="H6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0619761239522497E-3</v>
-      </c>
-      <c r="I6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0645161290322648E-3</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0619761239522497E-3</v>
-      </c>
-      <c r="K6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0645161290322509E-3</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0619761239522497E-3</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0619761239522497E-3</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="1"/>
-        <v>8.0645161290322509E-3</v>
-      </c>
-      <c r="O6" s="5">
-        <f>O1-N1</f>
         <v>8.0619761239522636E-3</v>
       </c>
-      <c r="P6" s="5">
-        <f t="shared" ref="P6:Q6" si="2">P1-O1</f>
-        <v>8.0645161290322509E-3</v>
-      </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="2"/>
-        <v>8.0619761239522636E-3</v>
-      </c>
-      <c r="R6" s="5">
-        <f>R1-Q1</f>
+      <c r="T6" s="5">
+        <f>T1-S1</f>
         <v>8.0492760985521883E-3</v>
       </c>
-      <c r="S6" s="5">
-        <f>S1-R1</f>
+      <c r="U6" s="5">
+        <f>U1-T1</f>
         <v>3.8274631750063182E-3</v>
       </c>
-      <c r="T6" s="5">
-        <f>T1-R1</f>
+      <c r="V6" s="5">
+        <f>V1-T1</f>
         <v>6.1798323596647109E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1001,7 +1041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <f>6.48/39.37</f>
         <v>0.16459232918465838</v>
